--- a/curriculum_Excel/Bカリキュラム問題・解答.xlsx
+++ b/curriculum_Excel/Bカリキュラム問題・解答.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/新カリキュラム作成課題/新カリキュラムエクセル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/ドラ用/新カリキュラム作成課題/新カリキュラムエクセル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2737032-FA8F-4849-8CB3-EC24A345F8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD2FD8-F50D-A244-8D28-63ECFFF65FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
   </bookViews>
   <sheets>
     <sheet name="問題をするにあたって" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
   <si>
     <t>解答</t>
     <rPh sb="0" eb="2">
@@ -372,60 +371,6 @@
     <t>for文を使用して下記の通りに出力してください</t>
   </si>
   <si>
-    <t>※この行は改行しているとする</t>
-  </si>
-  <si>
-    <t>01 * 01 = 001 || 02 * 01 = 002 || 03 * 01 = 003 || 04 * 01 = 004 || 05 * 01 = 005 || 06 * 01 = 006 || 07 * 01 = 007 || 08 * 01 = 008 || 09 * 01 = 009 || 010 * 01 = 010 || 011 * 01 = 011 || 012 * 01 = 012 || 013 * 01 = 013 || 014 * 01 = 014 || 015 * 01 = 015 || 016 * 01 = 016 || 017 * 01 = 017 || 018 * 01 = 018 || 019 * 01 = 019 || 020 * 01 = 020</t>
-  </si>
-  <si>
-    <t>01 * 02 = 002 || 02 * 02 = 004 || 03 * 02 = 006 || 04 * 02 = 008 || 05 * 02 = 010 || 06 * 02 = 012 || 07 * 02 = 014 || 08 * 02 = 016 || 09 * 02 = 018 || 010 * 02 = 020 || 011 * 02 = 022 || 012 * 02 = 024 || 013 * 02 = 026 || 014 * 02 = 028 || 015 * 02 = 030 || 016 * 02 = 032 || 017 * 02 = 034 || 018 * 02 = 036 || 019 * 02 = 038 || 020 * 02 = 040</t>
-  </si>
-  <si>
-    <t>01 * 03 = 003 || 02 * 03 = 006 || 03 * 03 = 009 || 04 * 03 = 012 || 05 * 03 = 015 || 06 * 03 = 018 || 07 * 03 = 021 || 08 * 03 = 024 || 09 * 03 = 027 || 010 * 03 = 030 || 011 * 03 = 033 || 012 * 03 = 036 || 013 * 03 = 039 || 014 * 03 = 042 || 015 * 03 = 045 || 016 * 03 = 048 || 017 * 03 = 051 || 018 * 03 = 054 || 019 * 03 = 057 || 020 * 03 = 060</t>
-  </si>
-  <si>
-    <t>01 * 04 = 004 || 02 * 04 = 008 || 03 * 04 = 012 || 04 * 04 = 016 || 05 * 04 = 020 || 06 * 04 = 024 || 07 * 04 = 028 || 08 * 04 = 032 || 09 * 04 = 036 || 010 * 04 = 040 || 011 * 04 = 044 || 012 * 04 = 048 || 013 * 04 = 052 || 014 * 04 = 056 || 015 * 04 = 060 || 016 * 04 = 064 || 017 * 04 = 068 || 018 * 04 = 072 || 019 * 04 = 076 || 020 * 04 = 080</t>
-  </si>
-  <si>
-    <t>01 * 05 = 005 || 02 * 05 = 010 || 03 * 05 = 015 || 04 * 05 = 020 || 05 * 05 = 025 || 06 * 05 = 030 || 07 * 05 = 035 || 08 * 05 = 040 || 09 * 05 = 045 || 010 * 05 = 050 || 011 * 05 = 055 || 012 * 05 = 060 || 013 * 05 = 065 || 014 * 05 = 070 || 015 * 05 = 075 || 016 * 05 = 080 || 017 * 05 = 085 || 018 * 05 = 090 || 019 * 05 = 095 || 020 * 05 = 100</t>
-  </si>
-  <si>
-    <t>01 * 06 = 006 || 02 * 06 = 012 || 03 * 06 = 018 || 04 * 06 = 024 || 05 * 06 = 030 || 06 * 06 = 036 || 07 * 06 = 042 || 08 * 06 = 048 || 09 * 06 = 054 || 010 * 06 = 060 || 011 * 06 = 066 || 012 * 06 = 072 || 013 * 06 = 078 || 014 * 06 = 084 || 015 * 06 = 090 || 016 * 06 = 096 || 017 * 06 = 102 || 018 * 06 = 108 || 019 * 06 = 114 || 020 * 06 = 120</t>
-  </si>
-  <si>
-    <t>01 * 07 = 007 || 02 * 07 = 014 || 03 * 07 = 021 || 04 * 07 = 028 || 05 * 07 = 035 || 06 * 07 = 042 || 07 * 07 = 049 || 08 * 07 = 056 || 09 * 07 = 063 || 010 * 07 = 070 || 011 * 07 = 077 || 012 * 07 = 084 || 013 * 07 = 091 || 014 * 07 = 098 || 015 * 07 = 105 || 016 * 07 = 112 || 017 * 07 = 119 || 018 * 07 = 126 || 019 * 07 = 133 || 020 * 07 = 140</t>
-  </si>
-  <si>
-    <t>01 * 08 = 008 || 02 * 08 = 016 || 03 * 08 = 024 || 04 * 08 = 032 || 05 * 08 = 040 || 06 * 08 = 048 || 07 * 08 = 056 || 08 * 08 = 064 || 09 * 08 = 072 || 010 * 08 = 080 || 011 * 08 = 088 || 012 * 08 = 096 || 013 * 08 = 104 || 014 * 08 = 112 || 015 * 08 = 120 || 016 * 08 = 128 || 017 * 08 = 136 || 018 * 08 = 144 || 019 * 08 = 152 || 020 * 08 = 160</t>
-  </si>
-  <si>
-    <t>01 * 09 = 009 || 02 * 09 = 018 || 03 * 09 = 027 || 04 * 09 = 036 || 05 * 09 = 045 || 06 * 09 = 054 || 07 * 09 = 063 || 08 * 09 = 072 || 09 * 09 = 081 || 010 * 09 = 090 || 011 * 09 = 099 || 012 * 09 = 108 || 013 * 09 = 117 || 014 * 09 = 126 || 015 * 09 = 135 || 016 * 09 = 144 || 017 * 09 = 153 || 018 * 09 = 162 || 019 * 09 = 171 || 020 * 09 = 180</t>
-  </si>
-  <si>
-    <t>コンソールにユーザー名を入力できるようにしてください</t>
-  </si>
-  <si>
-    <t>ユーザー名の文字数が10文字より大きい場合「名前を10文字以内にしてください」と出力してください</t>
-  </si>
-  <si>
-    <t>ユーザー名の文字数が0文字以下もしくはnullの場合「名前を入力してください」と出力してください</t>
-  </si>
-  <si>
-    <t>ユーザー名が正常な値だった場合「ユーザー名「 入力したユーザー名 」を登録しました」と出力してください</t>
-  </si>
-  <si>
-    <t>「0はグー、1：チョキ、2：パー」とすること</t>
-  </si>
-  <si>
-    <t>じゃんけんに勝つまでループすること</t>
-  </si>
-  <si>
-    <t>一回ごとに自分の手と相手の手を表示すること</t>
-  </si>
-  <si>
-    <t>条件分岐の設定</t>
-  </si>
-  <si>
     <t>じゃんけんを行った回数を表示してください</t>
   </si>
   <si>
@@ -510,40 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-------------------課題4-------------------</t>
-  </si>
-  <si>
-    <t>-------------------課題5-------------------</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01 * 01 = 01 || 01 * 02 = 02 || 01 * 03 = 03 || 01 * 04 = 04 || 01 * 05 = 05 || 01 * 06 = 06 || 01 * 07 = 07 || 01 * 08 = 08 || 01 * 09 = 09</t>
-  </si>
-  <si>
-    <t>02 * 01 = 02 || 02 * 02 = 04 || 02 * 03 = 06 || 02 * 04 = 08 || 02 * 05 = 10 || 02 * 06 = 12 || 02 * 07 = 14 || 02 * 08 = 16 || 02 * 09 = 18</t>
-  </si>
-  <si>
-    <t>03 * 01 = 03 || 03 * 02 = 06 || 03 * 03 = 09 || 03 * 04 = 12 || 03 * 05 = 15 || 03 * 06 = 18 || 03 * 07 = 21 || 03 * 08 = 24 || 03 * 09 = 27</t>
-  </si>
-  <si>
-    <t>04 * 01 = 04 || 04 * 02 = 08 || 04 * 03 = 12 || 04 * 04 = 16 || 04 * 05 = 20 || 04 * 06 = 24 || 04 * 07 = 28 || 04 * 08 = 32 || 04 * 09 = 36</t>
-  </si>
-  <si>
-    <t>05 * 01 = 05 || 05 * 02 = 10 || 05 * 03 = 15 || 05 * 04 = 20 || 05 * 05 = 25 || 05 * 06 = 30 || 05 * 07 = 35 || 05 * 08 = 40 || 05 * 09 = 45</t>
-  </si>
-  <si>
-    <t>06 * 01 = 06 || 06 * 02 = 12 || 06 * 03 = 18 || 06 * 04 = 24 || 06 * 05 = 30 || 06 * 06 = 36 || 06 * 07 = 42 || 06 * 08 = 48 || 06 * 09 = 54</t>
-  </si>
-  <si>
-    <t>07 * 01 = 07 || 07 * 02 = 14 || 07 * 03 = 21 || 07 * 04 = 28 || 07 * 05 = 35 || 07 * 06 = 42 || 07 * 07 = 49 || 07 * 08 = 56 || 07 * 09 = 63</t>
-  </si>
-  <si>
-    <t>08 * 01 = 08 || 08 * 02 = 16 || 08 * 03 = 24 || 08 * 04 = 32 || 08 * 05 = 40 || 08 * 06 = 48 || 08 * 07 = 56 || 08 * 08 = 64 || 08 * 09 = 72</t>
-  </si>
-  <si>
-    <t>09 * 01 = 09 || 09 * 02 = 18 || 09 * 03 = 27 || 09 * 04 = 36 || 09 * 05 = 45 || 09 * 06 = 54 || 09 * 07 = 63 || 09 * 08 = 72 || 09 * 09 = 81</t>
-  </si>
-  <si>
     <t>11文字以上でエラーが出るのか</t>
     <rPh sb="4" eb="6">
       <t xml:space="preserve">イジョウデエラー </t>
@@ -595,30 +506,7 @@
     <t>相手の手は「グー」</t>
   </si>
   <si>
-    <t>一回ごとに自分の手と相手の手を下記の通り出力してください</t>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">カキノトオリ </t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">シュツリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勝つまでにかかった合計回数は1回です</t>
-  </si>
-  <si>
-    <t>下記画像のような正規表現チェックが使われているか</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カキノ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ガゾウノ </t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t xml:space="preserve">セイキヒョウゲンチェック </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>適当な数字で繰り返していてブレイクしている場合は万が一を考えていないため返却</t>
@@ -748,20 +636,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力値例↓↓</t>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">レイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力例↓↓だった場合</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ニュウリョクレイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・入力される値は右記の表のどれかが入力され、入力回数の縛りはありません</t>
     <rPh sb="1" eb="2">
       <t xml:space="preserve">ニュウリョクサレルアタイハ </t>
@@ -842,19 +716,11 @@
     <t>ディスプレイの残り台数は2台です</t>
   </si>
   <si>
-    <t>・拡張for文・Switch文を使用すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・例：テレビorディスプレイと受け取った場合〇〇に受け取った値が入る→「〇〇の残り台数は9台です」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・Switch文内でテレビとディスプレイは続けて書くようにしてください、条件演算子で出力される値を変更してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※テレビが入力された場合フラグが立つようにしてください</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1103,13 +969,6 @@
     <t>課題5</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">カダイ5 </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題4</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">カダイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1187,6 +1046,85 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t xml:space="preserve">カイギョウヲハサンデシュツリョクサレルヨウニシテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンソールにユーザー名を入力できるようにしてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名の文字数が10文字より大きい場合「名前を10文字以内にしてください」と出力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名の文字数が0文字以下もしくはnullの場合「名前を入力してください」と出力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名が正常な値だった場合「ユーザー名「 入力したユーザー名 」を登録しました」と出力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「0はグー、1：チョキ、2：パー」とすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・じゃんけんに勝つまでループすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・条件分岐の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一回ごとに自分の手と相手の手を下記の通り出力してください</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カキノトオリ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名に適当なものを使っている場合</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヘンスウメイガ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テキトウナモノヲツカッテイルバアイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名だけで何が使われているか理解できない場合</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヘンスウメイダケデ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ナニガツカワレテイルカリカイデキナイバアイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメな例：int i  String str　　←なんの変数かわからないため</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ヘンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメな例：count　　←なにをcountしているのか理解できないため</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックの順番は正しいのか</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジュンバンハタダシイノカ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1554,13 +1492,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1604,13 +1542,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1659,14 +1597,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>23739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>545873</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>142429</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>142428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1709,14 +1647,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23738</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>249252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29041</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>120585</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>120584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1838,14 +1776,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35608</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>11869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1025547</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>27653</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>27652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1881,14 +1819,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>71214</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>615296</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>51171</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>51172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,13 +1863,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>733205</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1972,15 +1910,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>443541</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>190560</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21508</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2002,8 +1940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="972766" y="40302234"/>
-          <a:ext cx="13697477" cy="2757581"/>
+          <a:off x="975361" y="37338000"/>
+          <a:ext cx="8139347" cy="1625600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2100,187 +2038,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>883826</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7A6AD8-FD20-EBD8-B9D7-FB6211E6CF26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="3843" r="9965" b="1262"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10092267" y="16002000"/>
-          <a:ext cx="5913026" cy="9838267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>880532</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>208658</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BC9966-DF34-C6C7-E506-934A4F56DBC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="4575" r="20752" b="5234"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10092266" y="6311900"/>
-          <a:ext cx="5909733" cy="9136758"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3805542-11A4-2C40-9711-2C64FF6F5FFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="4575" t="53633" r="20752" b="5234"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17703800" y="5905500"/>
-          <a:ext cx="5803900" cy="3886200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>232834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95608</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FA971B-4400-CCD6-4C12-8053FBCF9F1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect l="3922" r="20915"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10155767" y="486834"/>
-          <a:ext cx="5829300" cy="5450774"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>84666</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>587652</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>88149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2297,7 +2063,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2324,13 +2090,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>253999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>872309</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2347,7 +2113,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="4139" r="5011" b="4061"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2366,15 +2132,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>67732</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27092</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:colOff>111759</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>179494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2390,14 +2156,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect l="6118" t="529" r="6948" b="14816"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17695332" y="29210000"/>
-          <a:ext cx="5774267" cy="2709334"/>
+          <a:off x="17705492" y="30490160"/>
+          <a:ext cx="5814907" cy="2709334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,13 +2176,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>563033</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2433,7 +2199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:srcRect l="6883" t="1587" b="15344"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2453,13 +2219,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>67734</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>423334</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2476,7 +2242,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:srcRect l="3773" r="24993"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2496,13 +2262,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>705073</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>172936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>230940</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>139069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2519,7 +2285,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:srcRect l="6636" r="34238" b="8445"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2539,13 +2305,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>27022</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>13511</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>243193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2562,7 +2328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:srcRect r="68016" b="6852"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2605,7 +2371,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:srcRect r="71840" b="10396"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2648,7 +2414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:srcRect t="13653" r="73801" b="44333"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2691,7 +2457,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:srcRect r="71840" b="44438"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2710,15 +2476,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1472741</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>98855</xdr:rowOff>
+      <xdr:colOff>1493061</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>169975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2734,15 +2500,101 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="972766" y="33371277"/>
-          <a:ext cx="7809230" cy="2665876"/>
+          <a:off x="995680" y="30043120"/>
+          <a:ext cx="7782101" cy="2638855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57079</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>211876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312614</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A021B0-BC73-1E6C-676E-13E726550E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect l="3165" r="24192" b="2179"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10131461" y="16136820"/>
+          <a:ext cx="5364074" cy="12802056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46488</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>816760</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>159363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5BE0E3-8568-6D46-90D1-B4B0DD28C103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect l="3165" t="1" r="24192" b="63639"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10104888" y="589280"/>
+          <a:ext cx="5870592" cy="5158083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2755,8 +2607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K146:K153" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="K146:K153" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K127:K134" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="K127:K134" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{188B2104-222E-7B4C-A4A9-E36A3ECED376}" name="商品一覧" dataDxfId="3"/>
   </tableColumns>
@@ -2765,8 +2617,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}" name="テーブル15" displayName="テーブル15" ref="I182:I189" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="I182:I189" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}" name="テーブル15" displayName="テーブル15" ref="I171:I178" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="I171:I178" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BC3B8C13-0BDC-C74C-B187-F8C7F3461D29}" name="商品一覧" dataDxfId="0"/>
   </tableColumns>
@@ -3098,7 +2950,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="7" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -3133,7 +2985,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -3311,7 +3163,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="8" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -3371,9 +3223,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB2D9F-B7C5-A441-831E-AE8CB6631F9A}">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3415,16 +3269,36 @@
         <v>50</v>
       </c>
     </row>
+    <row r="9" spans="2:8" ht="45">
+      <c r="B9" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="45">
+      <c r="B10" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
     <row r="11" spans="2:8" ht="45">
       <c r="B11" s="13" t="s">
-        <v>49</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="45">
+      <c r="B12" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45">
       <c r="B13" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="45">
+      <c r="B15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3437,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36244C-ED23-FE4A-BF37-7BD4BB0F0470}">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="141" workbookViewId="0"/>
   </sheetViews>
@@ -3452,42 +3326,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="47">
       <c r="B1" s="16" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38">
       <c r="B2" s="17" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38">
       <c r="B3" s="17" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3497,32 +3371,32 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="15" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3532,12 +3406,12 @@
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="15" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3547,547 +3421,452 @@
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="B45" s="2" t="s">
-        <v>69</v>
+      <c r="C45" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="B46" s="2" t="s">
-        <v>81</v>
+      <c r="C46" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="C47" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="2" t="s">
-        <v>79</v>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="C56" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="2" t="s">
-        <v>80</v>
+      <c r="C60" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="2" t="s">
-        <v>82</v>
+      <c r="C65" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="C66" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="B87" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="B89" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="B92" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>6</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="B123" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="B124" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="B125" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="B127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="B128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K128" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K129" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="C130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K130" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K131" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="K132" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K133" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="2" t="s">
+    <row r="134" spans="2:11">
+      <c r="B134" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K134" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="B97" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="B98" s="2" t="s">
+    <row r="136" spans="2:11">
+      <c r="B136" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="B99" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="B101" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>6</v>
-      </c>
-      <c r="B140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="B141" s="2" t="s">
+    <row r="146" spans="1:2">
+      <c r="B146" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="B160" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="B142" s="2" t="s">
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="C144" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="2" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="15"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="K146" s="2" t="s">
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="15"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="15"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="15"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K147" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K148" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="C149" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K149" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K150" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="K151" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K152" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K153" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="2" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="2" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="2" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="2" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="B178" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="B179" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="B180" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="B181" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="B182" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="B183" s="15"/>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="B184" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="B185" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="B186" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="B187" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="B188" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="B189" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="B190" s="15"/>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="B191" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="B192" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="15"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="15"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="2" t="s">
-        <v>185</v>
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4103,9 +3882,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41159339-4643-7741-B6DB-2C6E107A072F}">
-  <dimension ref="A1:R243"/>
+  <dimension ref="A1:R232"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="111" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4151,55 +3930,58 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="R8" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>153</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -4212,17 +3994,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:17">
       <c r="B26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="B28" s="15" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4240,66 +4019,66 @@
     </row>
     <row r="64" spans="1:18">
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="2:18">
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:18">
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:18">
       <c r="C68" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="2:18">
       <c r="C69" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="2:18">
       <c r="C70" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="2:18">
       <c r="B73" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="2:18">
       <c r="C74" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="2:18">
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="2:18">
@@ -4307,92 +4086,92 @@
     </row>
     <row r="77" spans="2:18">
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:18">
       <c r="C78" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="2:18">
       <c r="C79" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="2:18">
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="C84" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="C85" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="C88" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="C89" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="C90" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="C93" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="C96" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="15" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4413,73 +4192,25 @@
         <v>51</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:18">
       <c r="R117" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:18">
       <c r="B118" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="R118" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:18">
-      <c r="B120" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
-      <c r="B121" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18">
-      <c r="B122" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
-      <c r="B123" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18">
-      <c r="B124" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
-      <c r="B125" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R125" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18">
-      <c r="B126" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18">
-      <c r="B127" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18">
-      <c r="B128" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18">
-      <c r="B130" s="2" t="s">
-        <v>191</v>
+      <c r="R120" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -4500,393 +4231,338 @@
         <v>51</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:18">
       <c r="R144" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="2:18">
       <c r="B145" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="146" spans="2:18">
-      <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="148" spans="2:18">
-      <c r="B148" s="2" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="2:18">
-      <c r="B149" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="2:18">
-      <c r="B150" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="2:18">
-      <c r="B151" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" spans="2:18">
-      <c r="B152" s="2" t="s">
-        <v>58</v>
+      <c r="R149" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="2:18">
-      <c r="B153" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B153" s="3"/>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="2:18">
-      <c r="B154" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B154" s="3"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="2:18">
-      <c r="B155" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="2:18">
-      <c r="B157" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="2:18">
-      <c r="R159" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
-      <c r="B163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="B164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:17">
-      <c r="B165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="174" spans="1:17">
-      <c r="K174" s="10"/>
-    </row>
-    <row r="175" spans="1:17">
-      <c r="K175" s="10"/>
-    </row>
-    <row r="176" spans="1:17">
-      <c r="A176" s="1">
+      <c r="B155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="164" spans="1:18">
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="1:18">
+      <c r="K165" s="10"/>
+    </row>
+    <row r="166" spans="1:18">
+      <c r="A166" s="1">
         <v>6</v>
       </c>
-      <c r="J176" s="4">
-        <f>A176</f>
+      <c r="J166" s="4">
+        <f>A166</f>
         <v>6</v>
       </c>
-      <c r="Q176" s="5">
-        <f>A176</f>
+      <c r="Q166" s="5">
+        <f>A166</f>
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="2:18">
+    <row r="167" spans="1:18">
+      <c r="B167" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="R167" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="B168" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R168" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
+      <c r="B169" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R169" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
+      <c r="B170" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
+      <c r="B171" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
+      <c r="B172" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I172" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
+      <c r="B173" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I173" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="C174" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I174" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
+      <c r="B175" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I175" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="I176" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11">
       <c r="B177" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I177" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11">
+      <c r="B178" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I178" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K178" s="10"/>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="I179" s="14"/>
+      <c r="K179" s="10"/>
+    </row>
+    <row r="180" spans="2:11">
+      <c r="B180" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11">
+      <c r="B181" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11">
+      <c r="B182" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11">
+      <c r="B183" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11">
+      <c r="B184" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11">
+      <c r="B186" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11">
+      <c r="B187" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11">
+      <c r="B188" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11">
+      <c r="B190" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204" s="1">
+        <v>7</v>
+      </c>
+      <c r="J204" s="4">
+        <f>A204</f>
+        <v>7</v>
+      </c>
+      <c r="Q204" s="5">
+        <f>A204</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="B205" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D177" s="3"/>
-      <c r="R177" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="178" spans="2:18">
-      <c r="B178" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R178" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="179" spans="2:18">
-      <c r="B179" s="2" t="s">
+      <c r="R205" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R179" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="180" spans="2:18">
-      <c r="C180" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="181" spans="2:18">
-      <c r="B181" s="2" t="s">
+    </row>
+    <row r="206" spans="1:18">
+      <c r="B206" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="2:18">
-      <c r="B182" s="2" t="s">
+    <row r="207" spans="1:18">
+      <c r="B207" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="B208" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I182" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="183" spans="2:18">
-      <c r="B183" s="2" t="s">
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I183" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="2:18">
-      <c r="B184" s="2" t="s">
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I184" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="185" spans="2:18">
-      <c r="C185" s="2" t="s">
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I185" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="186" spans="2:18">
-      <c r="B186" s="2" t="s">
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I186" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="187" spans="2:18">
-      <c r="I187" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="188" spans="2:18">
-      <c r="B188" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I188" s="14" t="s">
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="189" spans="2:18">
-      <c r="B189" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I189" s="14" t="s">
+    <row r="224" spans="2:2">
+      <c r="B224" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="K189" s="10"/>
-    </row>
-    <row r="190" spans="2:18">
-      <c r="I190" s="14"/>
-      <c r="K190" s="10"/>
-    </row>
-    <row r="191" spans="2:18">
-      <c r="B191" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="192" spans="2:18">
-      <c r="B192" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18">
-      <c r="A215" s="1">
-        <v>7</v>
-      </c>
-      <c r="J215" s="4">
-        <f>A215</f>
-        <v>7</v>
-      </c>
-      <c r="Q215" s="5">
-        <f>A215</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18">
-      <c r="B216" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R216" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18">
-      <c r="B217" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18">
-      <c r="B218" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18">
-      <c r="B219" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18">
-      <c r="B220" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18">
-      <c r="B222" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18">
-      <c r="B223" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18">
-      <c r="B224" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="2" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="2" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/curriculum_Excel/Bカリキュラム問題・解答.xlsx
+++ b/curriculum_Excel/Bカリキュラム問題・解答.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/ドラ用/新カリキュラム作成課題/新カリキュラムエクセル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD2FD8-F50D-A244-8D28-63ECFFF65FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182343EB-3478-C54E-99B0-BECA9CDC8C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
   </bookViews>
   <sheets>
     <sheet name="問題をするにあたって" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="184">
   <si>
     <t>解答</t>
     <rPh sb="0" eb="2">
@@ -1128,12 +1128,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>パソコン、冷蔵庫、扇風機、洗濯機、加湿器、テレビ、ディスプレイ、その他商品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミング作成後に下記URLのリンクから理解度テストを実施してください</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">カキ </t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">リカイドテスト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://forms.gle/gJdzD4S21W5DWhFd6</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1253,6 +1271,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1295,12 +1322,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,8 +1388,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1597,14 +1631,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>23739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>545873</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>142428</xdr:rowOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>142429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1647,14 +1681,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23738</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>249252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29041</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>120584</xdr:rowOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>120585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1690,14 +1724,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>106822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873145</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138010</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1733,14 +1767,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>52901</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>96712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1042840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>121721</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,13 +1810,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35608</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>11869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1025547</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>27652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1819,14 +1853,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>71214</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>615296</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>51172</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>51171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1863,13 +1897,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>733205</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2607,8 +2641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K127:K134" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="K127:K134" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K130:K137" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="K130:K137" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{188B2104-222E-7B4C-A4A9-E36A3ECED376}" name="商品一覧" dataDxfId="3"/>
   </tableColumns>
@@ -3311,7 +3345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36244C-ED23-FE4A-BF37-7BD4BB0F0470}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="141" workbookViewId="0"/>
   </sheetViews>
@@ -3364,476 +3398,473 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" ht="38">
+      <c r="B10" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22" customHeight="1">
+      <c r="B11" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="15" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="2" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="15" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="C45" s="2" t="s">
+    <row r="48" spans="1:3">
+      <c r="C48" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="2" t="s">
+    <row r="49" spans="2:3">
+      <c r="C49" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="2" t="s">
+    <row r="50" spans="2:3">
+      <c r="C50" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="2" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="2" t="s">
+    <row r="53" spans="2:3">
+      <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="C51" s="2" t="s">
+    <row r="54" spans="2:3">
+      <c r="C54" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="C56" s="2" t="s">
+    <row r="59" spans="2:3">
+      <c r="C59" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="C61" s="2" t="s">
+    <row r="64" spans="2:3">
+      <c r="C64" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="C65" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="C66" s="2" t="s">
+    <row r="69" spans="2:3">
+      <c r="C69" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="C67" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="C70" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="15" t="s">
+    <row r="80" spans="2:3">
+      <c r="B80" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1">
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="2" t="s">
+    <row r="96" spans="1:2">
+      <c r="B96" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="2" t="s">
+    <row r="98" spans="1:2">
+      <c r="B98" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1">
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="B107" s="2" t="s">
+    <row r="110" spans="1:2">
+      <c r="B110" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="B109" s="2" t="s">
+    <row r="112" spans="1:2">
+      <c r="B112" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="B121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1">
+    <row r="124" spans="1:4">
+      <c r="B124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>6</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="B123" s="2" t="s">
+      <c r="B125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="B126" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="B124" s="2" t="s">
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="B127" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="B125" s="2" t="s">
+    <row r="128" spans="1:4">
+      <c r="B128" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="B126" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="B127" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="B128" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K128" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K129" s="14" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="2:11">
-      <c r="C130" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K130" s="14" t="s">
-        <v>93</v>
+      <c r="B130" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="2:11">
+      <c r="B132" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="K132" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="2" t="s">
-        <v>117</v>
+      <c r="C133" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="K135" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="K136" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="B137" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="2" t="s">
-        <v>106</v>
+        <v>181</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="B146" s="2" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="B160" s="15" t="s">
+    <row r="163" spans="1:2">
+      <c r="B163" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="15" t="s">
+    <row r="164" spans="1:2">
+      <c r="B164" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="15" t="s">
+    <row r="165" spans="1:2">
+      <c r="B165" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="15" t="s">
+    <row r="166" spans="1:2">
+      <c r="B166" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="15" t="s">
+    <row r="167" spans="1:2">
+      <c r="B167" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="15"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="15" t="s">
+    <row r="168" spans="1:2">
+      <c r="B168" s="15"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="15" t="s">
+    <row r="170" spans="1:2">
+      <c r="B170" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="15" t="s">
+    <row r="171" spans="1:2">
+      <c r="B171" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="15" t="s">
+    <row r="172" spans="1:2">
+      <c r="B172" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="15" t="s">
+    <row r="173" spans="1:2">
+      <c r="B173" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="15" t="s">
+    <row r="174" spans="1:2">
+      <c r="B174" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="15"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="15" t="s">
+    <row r="175" spans="1:2">
+      <c r="B175" s="15"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="B176" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="15" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" s="15" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="15"/>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="15" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="15" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="2:2">
@@ -3841,41 +3872,57 @@
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B183" s="15"/>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="2" t="s">
+    <row r="190" spans="2:2">
+      <c r="B190" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{CFC78E84-D000-D34A-BA54-509ABAEFDF91}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/curriculum_Excel/Bカリキュラム問題・解答.xlsx
+++ b/curriculum_Excel/Bカリキュラム問題・解答.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/ドラ用/新カリキュラム作成課題/新カリキュラムエクセル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182343EB-3478-C54E-99B0-BECA9CDC8C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DC4C2A-C34D-A345-9CA4-36F2228D8096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
   </bookViews>
   <sheets>
     <sheet name="問題をするにあたって" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="185">
   <si>
     <t>解答</t>
     <rPh sb="0" eb="2">
@@ -716,10 +716,6 @@
     <t>ディスプレイの残り台数は2台です</t>
   </si>
   <si>
-    <t>・例：テレビorディスプレイと受け取った場合〇〇に受け取った値が入る→「〇〇の残り台数は9台です」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Switch文内でテレビとディスプレイは続けて書くようにしてください、条件演算子で出力される値を変更してください</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1144,6 +1140,29 @@
   </si>
   <si>
     <t>https://forms.gle/gJdzD4S21W5DWhFd6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・テレビとディスプレイは同じ商品扱いとし、ディスプレイが出た場合は最大個数の11個からランダムで出た数字を引いて出力してください </t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">オナジショウヒンアツカイトスルノデ </t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t xml:space="preserve">サイダイコスウ </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">スウジヲヒイテクダサイ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">シュツリョクシテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・例：テレビと受け取った場合、→「テレビの残り台数は〇〇台です」※〇〇はランダムで出た数字</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1385,11 +1404,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1631,14 +1650,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>23739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>545873</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>142429</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>142428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1681,14 +1700,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23738</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>249252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29041</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>120585</xdr:rowOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>120584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1989,13 +2008,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>59268</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>846668</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>211915</xdr:rowOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2017,8 +2036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10100735" y="33460266"/>
-          <a:ext cx="5867400" cy="7899649"/>
+          <a:off x="10117668" y="36000267"/>
+          <a:ext cx="5887720" cy="6448214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,13 +2093,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>84666</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>587652</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>88149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2123,15 +2142,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>253999</xdr:rowOff>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>40639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>872309</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>851989</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2153,8 +2172,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10143067" y="42163999"/>
-          <a:ext cx="5850709" cy="7366001"/>
+          <a:off x="10139680" y="42458639"/>
+          <a:ext cx="5871029" cy="7366001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,13 +2272,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>67734</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>423334</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2296,13 +2315,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>705073</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>172936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>230940</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>139069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2339,13 +2358,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>27022</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>13511</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>243193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2641,8 +2660,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K130:K137" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="K130:K137" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K131:K138" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="K131:K138" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{188B2104-222E-7B4C-A4A9-E36A3ECED376}" name="商品一覧" dataDxfId="3"/>
   </tableColumns>
@@ -2651,8 +2670,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}" name="テーブル15" displayName="テーブル15" ref="I171:I178" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="I171:I178" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}" name="テーブル15" displayName="テーブル15" ref="I172:I179" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="I172:I179" xr:uid="{77ADA6DA-7E3F-7B4B-836E-4170F424A278}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BC3B8C13-0BDC-C74C-B187-F8C7F3461D29}" name="商品一覧" dataDxfId="0"/>
   </tableColumns>
@@ -2984,7 +3003,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -3028,17 +3047,17 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="9"/>
@@ -3137,17 +3156,17 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="9"/>
@@ -3197,7 +3216,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -3211,17 +3230,17 @@
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="9"/>
@@ -3305,22 +3324,22 @@
     </row>
     <row r="9" spans="2:8" ht="45">
       <c r="B9" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="45">
       <c r="B10" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="45">
       <c r="B11" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="45">
       <c r="B12" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45">
@@ -3345,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36244C-ED23-FE4A-BF37-7BD4BB0F0470}">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="141" workbookViewId="0"/>
   </sheetViews>
@@ -3360,52 +3379,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="47">
       <c r="B1" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38">
       <c r="B2" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38">
       <c r="B3" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="38">
       <c r="B10" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22" customHeight="1">
+      <c r="B11" s="18" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22" customHeight="1">
-      <c r="B11" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3420,27 +3439,27 @@
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3474,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3470,17 +3489,17 @@
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3500,7 +3519,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -3605,7 +3624,7 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3620,7 +3639,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="B98" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3635,7 +3654,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3657,260 +3676,265 @@
     </row>
     <row r="127" spans="1:4">
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K131" s="14" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K132" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K132" s="14" t="s">
+      <c r="K133" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
-      <c r="C133" s="2" t="s">
+    <row r="134" spans="2:11">
+      <c r="C134" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K133" s="14" t="s">
+      <c r="K134" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="2" t="s">
+    <row r="135" spans="2:11">
+      <c r="B135" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K134" s="14" t="s">
+      <c r="K135" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
-      <c r="K135" s="14" t="s">
+    <row r="136" spans="2:11">
+      <c r="K136" s="14" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K136" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="B137" s="2" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="K137" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K138" s="14" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="B163" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" s="15" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="B165" s="15" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="B168" s="15"/>
+      <c r="B168" s="15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="B169" s="15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B169" s="15"/>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" s="15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="B171" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="B173" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="B174" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="B175" s="15"/>
+      <c r="B175" s="15" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="B176" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B176" s="15"/>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="15"/>
+      <c r="B180" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="B181" s="15"/>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="15"/>
+      <c r="B183" s="15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="B184" s="15"/>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3929,7 +3953,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41159339-4643-7741-B6DB-2C6E107A072F}">
-  <dimension ref="A1:R232"/>
+  <dimension ref="A1:R233"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3985,7 +4009,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>73</v>
@@ -3993,7 +4017,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>74</v>
@@ -4001,7 +4025,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>75</v>
@@ -4009,7 +4033,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>76</v>
@@ -4022,10 +4046,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4048,7 +4072,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4074,7 +4098,7 @@
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>82</v>
@@ -4082,7 +4106,7 @@
     </row>
     <row r="66" spans="2:18">
       <c r="B66" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>86</v>
@@ -4090,7 +4114,7 @@
     </row>
     <row r="67" spans="2:18">
       <c r="B67" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:18">
@@ -4110,7 +4134,7 @@
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="2:18">
@@ -4218,7 +4242,7 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4249,7 +4273,7 @@
     </row>
     <row r="118" spans="1:18">
       <c r="B118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R118" s="2" t="s">
         <v>87</v>
@@ -4257,7 +4281,7 @@
     </row>
     <row r="120" spans="1:18">
       <c r="R120" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -4288,7 +4312,7 @@
     </row>
     <row r="145" spans="2:18">
       <c r="B145" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R145" s="2" t="s">
         <v>87</v>
@@ -4296,12 +4320,12 @@
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="2:18">
       <c r="R149" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="2:18">
@@ -4341,275 +4365,280 @@
       </c>
       <c r="D167" s="3"/>
       <c r="R167" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:18">
       <c r="B168" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" spans="1:18">
       <c r="B169" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R169" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:18">
       <c r="B170" s="2" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:18">
       <c r="B171" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:18">
       <c r="B172" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I172" s="14" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:18">
       <c r="B173" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I173" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="B174" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I173" s="14" t="s">
+      <c r="I174" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
-      <c r="C174" s="2" t="s">
+    <row r="175" spans="1:18">
+      <c r="C175" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I174" s="14" t="s">
+      <c r="I175" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
-      <c r="B175" s="2" t="s">
+    <row r="176" spans="1:18">
+      <c r="B176" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I175" s="14" t="s">
+      <c r="I176" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
-      <c r="I176" s="14" t="s">
+    <row r="177" spans="2:11">
+      <c r="I177" s="14" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11">
-      <c r="B177" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I177" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="178" spans="2:11">
       <c r="B178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I178" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="B179" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I178" s="14" t="s">
+      <c r="I179" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K178" s="10"/>
-    </row>
-    <row r="179" spans="2:11">
-      <c r="I179" s="14"/>
       <c r="K179" s="10"/>
     </row>
     <row r="180" spans="2:11">
-      <c r="B180" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="I180" s="14"/>
+      <c r="K180" s="10"/>
     </row>
     <row r="181" spans="2:11">
       <c r="B181" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="182" spans="2:11">
       <c r="B182" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="2:11">
       <c r="B183" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184" spans="2:11">
       <c r="B184" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="2:11">
       <c r="B185" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="2:11">
       <c r="B186" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="2:11">
       <c r="B187" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="2:11">
       <c r="B188" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11">
+      <c r="B189" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="2:11">
-      <c r="B190" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18">
-      <c r="A204" s="1">
+    <row r="191" spans="2:11">
+      <c r="B191" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="A205" s="1">
         <v>7</v>
       </c>
-      <c r="J204" s="4">
-        <f>A204</f>
+      <c r="J205" s="4">
+        <f>A205</f>
         <v>7</v>
       </c>
-      <c r="Q204" s="5">
-        <f>A204</f>
+      <c r="Q205" s="5">
+        <f>A205</f>
         <v>7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18">
-      <c r="B205" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="R205" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="206" spans="1:18">
       <c r="B206" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R206" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="207" spans="1:18">
       <c r="B207" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="1:18">
       <c r="B208" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
